--- a/BookRequests.xlsx
+++ b/BookRequests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9780593714027</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Algebra of Wealth</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BookRequests.xlsx
+++ b/BookRequests.xlsx
@@ -461,17 +461,19 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>9783442178582</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9780399144462</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atomic Habits</t>
+          <t>Who Moved My Cheese?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
@@ -481,17 +483,19 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9780593714027</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9780345803481</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Algebra of Wealth</t>
+          <t>50 Shades of Grey</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>

--- a/BookRequests.xlsx
+++ b/BookRequests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,50 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9780399144462</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Who Moved My Cheese?</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>9780345803481</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>50 Shades of Grey</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
